--- a/WinPMS/Doc/PMS_Doc.xlsx
+++ b/WinPMS/Doc/PMS_Doc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_VNE_Work\CSharp\PMS\WinPMS\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578B0C5B-FAA4-4F25-9CB6-5053F34990B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8536C9B1-EE22-41DD-8CAD-3FD18512EDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3157,7 +3157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -3354,7 +3354,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/WinPMS/Doc/PMS_Doc.xlsx
+++ b/WinPMS/Doc/PMS_Doc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_VNE_Work\CSharp\PMS\WinPMS\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8536C9B1-EE22-41DD-8CAD-3FD18512EDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E3C858-E568-49E3-A652-A2EFD73D4E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=".dll check" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>G1.2 GM</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -115,10 +107,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Radar 77GHz G1.3 Nissan J32V E Power Rear Corner CR WithCS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ALV_CAN_COMMS - fft ghost v4#DLL_X_X_68_0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -171,10 +159,42 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>ALV_CAN_Comms.dll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DLL_X_X_70_30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>680883100#682217300#{Veh}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>680883100G</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 如果.ini配置中包含#符号，则必须加上附加属性，eg：G1.2 Chery#G1.2 BTET#G1.3 BTET#{FLR-CR-FCR-RCR}
+    -&gt; FLR (Front Looking Radar)
+    -&gt; CR (Corner Radar)
+    -&gt; FCR (Front Corner Radar)
+    -&gt; FLCR (Front Left Corner Radar)
+    -&gt; FRCR (Front Right Corner Radar)
+    -&gt; RCR (Rear Corner Radar)
+    -&gt; RLCR (Rear Left Corner Radar)
+    -&gt; RRCR (Rear Right Corner Radar)
 2. 特殊属性{XXX}
     -&gt; {XXX1-XXX2-XXX3}，这表示Description中包含XXX字段，可以是单个字段组成；也可以由多个字段组成，多个字段之间通过“-”符号分割
     -&gt; {Veh}，这表示通过Veh号来查找对应的dll，“#”符号之前必须是Veh号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description (Pass In: for compare)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radar 77GHz G1.3 Nissan J32V E Power Rear Corner CR_WithCS</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -333,6 +353,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -373,13 +396,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3705226</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1447801</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -444,13 +467,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3181350</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1990725</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -532,13 +555,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>695326</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -588,13 +611,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2443164</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3181351</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -648,13 +671,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2757487</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3143250</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -718,13 +741,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2024062</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2409825</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -788,13 +811,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1990725</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3652838</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -844,13 +867,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1743076</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -912,13 +935,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2481262</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>138112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2867025</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -982,13 +1005,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>585787</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1052,13 +1075,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>33339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3705226</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1111,13 +1134,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>652462</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1885950</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1181,13 +1204,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2457451</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1261,13 +1284,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1828799</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1114424</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1399,13 +1422,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1496,13 +1519,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1447801</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1114424</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1554,13 +1577,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1271587</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1657350</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1624,13 +1647,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1504950</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1428749</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1751,13 +1774,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1743077</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>180973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3657601</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1807,13 +1830,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2443163</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1863,13 +1886,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3657600</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3662362</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1919,13 +1942,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3652838</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3662362</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1975,13 +1998,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3700462</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4086225</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2045,13 +2068,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1447801</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1428749</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2103,13 +2126,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1528762</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1914525</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2173,13 +2196,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3690937</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4076700</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2243,13 +2266,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>76201</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2343,13 +2366,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3648075</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2105025</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2437,13 +2460,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3733800</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2028824</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2513,13 +2536,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3571876</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>733426</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2585,13 +2608,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>990601</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>995363</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2641,13 +2664,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>995363</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1000125</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2697,13 +2720,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1052512</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1438275</xdr:colOff>
-      <xdr:row>90</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2767,13 +2790,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2105025</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4343401</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2823,13 +2846,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2166937</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2552700</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3155,10 +3178,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3171,24 +3195,24 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3196,13 +3220,13 @@
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3210,13 +3234,13 @@
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3224,13 +3248,13 @@
     </row>
     <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3238,13 +3262,13 @@
     </row>
     <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3252,105 +3276,116 @@
     </row>
     <row r="12" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>20</v>
+      <c r="C14" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="C15" s="11"/>
     </row>
     <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="C16" s="11"/>
     </row>
     <row r="17" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="20" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="23" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="10"/>
+    <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="11"/>
     </row>
-    <row r="24" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>35</v>
+    <row r="27" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="2" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
+    <row r="29" spans="1:3" s="2" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
